--- a/Equipe207.xlsx
+++ b/Equipe207.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="237" documentId="8_{6BB8C8F4-817F-4135-A9EF-0E7E368F1CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FC88C0B-EAFB-42C6-A91B-31039C1415A0}"/>
+  <xr:revisionPtr revIDLastSave="249" documentId="8_{6BB8C8F4-817F-4135-A9EF-0E7E368F1CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47B69A55-D88C-4596-A595-C21B8A202E59}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="3" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sommaire" sheetId="9" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="176">
   <si>
     <t>Fonct.</t>
   </si>
@@ -114,8 +114,7 @@
     <t>Bon travail!</t>
   </si>
   <si>
-    <t>Vous avez trop de logique dans vos components
-Vous ne devriez pas utiliser document.</t>
+    <t>Vous avez trop de logique dans vos components</t>
   </si>
   <si>
     <t>1.2 Arborescence</t>
@@ -240,11 +239,7 @@
     <t>Excellent</t>
   </si>
   <si>
-    <t>LOG2990-207\client\src\app\components\countdown\countdown.component.ts:
-  10  
-  11: const ONE_SECOND_INTERVAL = 1000;
-  12  
-LOG2990-207\client\src\app\components\join-game-popup\join-game-popup.component.ts:
+    <t>LOG2990-207\client\src\app\components\join-game-popup\join-game-popup.component.ts:
    9  
   10: const CODE_LENGTH = 4;
   11  
@@ -403,9 +398,6 @@
 Les noms ne sont pas troncés excessivement. (Exemple: utiliser background au lieu de seulement bg).</t>
   </si>
   <si>
-    <t>.\server\app\services\room-manager\room-manager.service.ts:157:22 - Unknown word (randomstring)</t>
-  </si>
-  <si>
     <t>7.8 Performance</t>
   </si>
   <si>
@@ -430,17 +422,13 @@
     <t>-0,5 commit implicite (nettoyage 3641303a3fd7c0f125c0ad341a42738200808a87)</t>
   </si>
   <si>
-    <t>-0,5 commit implicite (tests - f22314b97eb292d2488d349d0f9afe20a84849ca, nettoyage - 3641303a3fd7c0f125c0ad341a42738200808a87)</t>
+    <t>-0,25 commit implicite (tests - f22314b97eb292d2488d349d0f9afe20a84849ca, nettoyage - 3641303a3fd7c0f125c0ad341a42738200808a87)</t>
   </si>
   <si>
     <t>8.3 Branches mortes</t>
   </si>
   <si>
     <t xml:space="preserve">Le projet ne contient pas de branches mortes (stale branch). Une branche est considérée comme morte si elle n'a pas de commit pendant plus de 3 semaines. </t>
-  </si>
-  <si>
-    <t>refactor/uniformisation-ui-site
-575f5422 · modification couleur des choix de reponses · 3 weeks ago</t>
   </si>
   <si>
     <t>8.4 Gitlab</t>
@@ -2379,6 +2367,102 @@
     <xf numFmtId="0" fontId="14" fillId="19" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="8" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="9" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2403,105 +2487,9 @@
     <xf numFmtId="0" fontId="12" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="8" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="9" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2540,13 +2528,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
-    <cellStyle name="40% - Accent2" xfId="5" builtinId="35"/>
-    <cellStyle name="40% - Accent3" xfId="6" builtinId="39"/>
-    <cellStyle name="Explanatory Text" xfId="2" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent1" xfId="4" builtinId="31"/>
+    <cellStyle name="40 % - Accent2" xfId="5" builtinId="35"/>
+    <cellStyle name="40 % - Accent3" xfId="6" builtinId="39"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="3" builtinId="21"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
+    <cellStyle name="Sortie" xfId="3" builtinId="21"/>
+    <cellStyle name="Texte explicatif" xfId="2" builtinId="53" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3006,11 +2994,11 @@
       </c>
       <c r="C5" s="113">
         <f>'Assurance Qualité'!F59</f>
-        <v>0.73299999999999998</v>
+        <v>0.78</v>
       </c>
       <c r="D5" s="113">
         <f t="shared" ref="D5:D6" si="0">B5*0.6+C5*0.4 - 0.1*E5</f>
-        <v>0.83920000000000006</v>
+        <v>0.8580000000000001</v>
       </c>
       <c r="E5" s="114"/>
       <c r="F5" s="115">
@@ -3018,7 +3006,7 @@
       </c>
       <c r="G5" s="116">
         <f t="shared" ref="G5:G7" si="1">D5*F5</f>
-        <v>16.784000000000002</v>
+        <v>17.160000000000004</v>
       </c>
       <c r="H5" s="116">
         <f>Documents!E16*5</f>
@@ -3078,8 +3066,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:Q59"/>
   <sheetViews>
-    <sheetView topLeftCell="B52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3098,36 +3086,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A2" s="231" t="s">
+      <c r="A2" s="263" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="231"/>
-      <c r="C2" s="231"/>
-      <c r="D2" s="231"/>
-      <c r="E2" s="231"/>
-      <c r="F2" s="231"/>
-      <c r="G2" s="231"/>
-      <c r="H2" s="231"/>
-      <c r="I2" s="231"/>
-      <c r="J2" s="231"/>
-      <c r="K2" s="231"/>
+      <c r="B2" s="263"/>
+      <c r="C2" s="263"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="263"/>
+      <c r="F2" s="263"/>
+      <c r="G2" s="263"/>
+      <c r="H2" s="263"/>
+      <c r="I2" s="263"/>
+      <c r="J2" s="263"/>
+      <c r="K2" s="263"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="4" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A4" s="232" t="s">
+      <c r="A4" s="264" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="232"/>
-      <c r="C4" s="232"/>
-      <c r="D4" s="232"/>
-      <c r="E4" s="232"/>
-      <c r="F4" s="232"/>
-      <c r="G4" s="232"/>
-      <c r="H4" s="232"/>
-      <c r="I4" s="232"/>
-      <c r="J4" s="232"/>
-      <c r="K4" s="232"/>
+      <c r="B4" s="264"/>
+      <c r="C4" s="264"/>
+      <c r="D4" s="264"/>
+      <c r="E4" s="264"/>
+      <c r="F4" s="264"/>
+      <c r="G4" s="264"/>
+      <c r="H4" s="264"/>
+      <c r="I4" s="264"/>
+      <c r="J4" s="264"/>
+      <c r="K4" s="264"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
@@ -3147,36 +3135,36 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A6" s="249" t="s">
+      <c r="A6" s="256" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="236" t="s">
+      <c r="B6" s="268" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="251" t="s">
+      <c r="C6" s="258" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="252"/>
-      <c r="E6" s="252"/>
-      <c r="F6" s="253" t="s">
+      <c r="D6" s="259"/>
+      <c r="E6" s="259"/>
+      <c r="F6" s="260" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="254"/>
-      <c r="H6" s="255"/>
-      <c r="I6" s="233" t="s">
+      <c r="G6" s="261"/>
+      <c r="H6" s="262"/>
+      <c r="I6" s="265" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="234"/>
-      <c r="K6" s="235"/>
+      <c r="J6" s="266"/>
+      <c r="K6" s="267"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="247"/>
-      <c r="O6" s="248"/>
-      <c r="P6" s="248"/>
+      <c r="N6" s="254"/>
+      <c r="O6" s="255"/>
+      <c r="P6" s="255"/>
     </row>
     <row r="7" spans="1:17" ht="18.75">
-      <c r="A7" s="250"/>
-      <c r="B7" s="237"/>
+      <c r="A7" s="257"/>
+      <c r="B7" s="269"/>
       <c r="C7" s="14" t="s">
         <v>15</v>
       </c>
@@ -3212,28 +3200,28 @@
       <c r="Q7" s="40"/>
     </row>
     <row r="8" spans="1:17" ht="18.75">
-      <c r="A8" s="246" t="s">
+      <c r="A8" s="238" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="246"/>
-      <c r="C8" s="239" t="s">
+      <c r="B8" s="238"/>
+      <c r="C8" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="240"/>
+      <c r="D8" s="232"/>
       <c r="E8" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="239" t="s">
+      <c r="F8" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="240"/>
+      <c r="G8" s="232"/>
       <c r="H8" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="239" t="s">
+      <c r="I8" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="240"/>
+      <c r="J8" s="232"/>
       <c r="K8" s="46"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -3242,7 +3230,7 @@
       <c r="P8" s="40"/>
       <c r="Q8" s="40"/>
     </row>
-    <row r="9" spans="1:17" ht="76.5">
+    <row r="9" spans="1:17" ht="45.75">
       <c r="A9" s="29" t="s">
         <v>20</v>
       </c>
@@ -3259,7 +3247,7 @@
         <v>22</v>
       </c>
       <c r="F9" s="102">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="G9" s="99">
         <v>6</v>
@@ -3321,10 +3309,10 @@
       <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A11" s="241" t="s">
+      <c r="A11" s="233" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="242"/>
+      <c r="B11" s="234"/>
       <c r="C11" s="47">
         <f>SUMPRODUCT(C6:C10,D6:D10)</f>
         <v>8</v>
@@ -3336,7 +3324,7 @@
       <c r="E11" s="49"/>
       <c r="F11" s="50">
         <f>SUMPRODUCT(F6:F10,G6:G10)</f>
-        <v>4.4000000000000004</v>
+        <v>5.6</v>
       </c>
       <c r="G11" s="51">
         <f>SUM(G6:G10)</f>
@@ -3360,28 +3348,28 @@
       <c r="Q11" s="44"/>
     </row>
     <row r="12" spans="1:17" s="12" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A12" s="246" t="s">
+      <c r="A12" s="238" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="246"/>
-      <c r="C12" s="239" t="s">
+      <c r="B12" s="238"/>
+      <c r="C12" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="240"/>
+      <c r="D12" s="232"/>
       <c r="E12" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="239" t="s">
+      <c r="F12" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="240"/>
+      <c r="G12" s="232"/>
       <c r="H12" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="239" t="s">
+      <c r="I12" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="240"/>
+      <c r="J12" s="232"/>
       <c r="K12" s="46"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -3576,10 +3564,10 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A18" s="241" t="s">
+      <c r="A18" s="233" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="242"/>
+      <c r="B18" s="234"/>
       <c r="C18" s="47">
         <f>SUMPRODUCT(C13:C17,D13:D17)</f>
         <v>13.8</v>
@@ -3615,28 +3603,28 @@
       <c r="Q18" s="44"/>
     </row>
     <row r="19" spans="1:17" s="43" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A19" s="238" t="s">
+      <c r="A19" s="270" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="238"/>
-      <c r="C19" s="239" t="s">
+      <c r="B19" s="270"/>
+      <c r="C19" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="240"/>
+      <c r="D19" s="232"/>
       <c r="E19" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="239" t="s">
+      <c r="F19" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="240"/>
+      <c r="G19" s="232"/>
       <c r="H19" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="239" t="s">
+      <c r="I19" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="240"/>
+      <c r="J19" s="232"/>
       <c r="K19" s="46"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
@@ -3712,10 +3700,10 @@
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A22" s="243" t="s">
+      <c r="A22" s="271" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="244"/>
+      <c r="B22" s="253"/>
       <c r="C22" s="57">
         <f>SUMPRODUCT(C20:C21,D20:D21)</f>
         <v>6</v>
@@ -3751,24 +3739,24 @@
         <v>48</v>
       </c>
       <c r="B23" s="213"/>
-      <c r="C23" s="239" t="s">
+      <c r="C23" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="240"/>
+      <c r="D23" s="232"/>
       <c r="E23" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="239" t="s">
+      <c r="F23" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="240"/>
+      <c r="G23" s="232"/>
       <c r="H23" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="239" t="s">
+      <c r="I23" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="J23" s="240"/>
+      <c r="J23" s="232"/>
       <c r="K23" s="46"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -3871,10 +3859,10 @@
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A27" s="245" t="s">
+      <c r="A27" s="252" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="244"/>
+      <c r="B27" s="253"/>
       <c r="C27" s="47">
         <f>SUMPRODUCT(C24:C26,D24:D26)</f>
         <v>2</v>
@@ -3906,33 +3894,33 @@
       <c r="M27" s="56"/>
     </row>
     <row r="28" spans="1:17" ht="21" customHeight="1">
-      <c r="A28" s="238" t="s">
+      <c r="A28" s="270" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="238"/>
-      <c r="C28" s="239" t="s">
+      <c r="B28" s="270"/>
+      <c r="C28" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="240"/>
+      <c r="D28" s="232"/>
       <c r="E28" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="F28" s="239" t="s">
+      <c r="F28" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="240"/>
+      <c r="G28" s="232"/>
       <c r="H28" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="I28" s="239" t="s">
+      <c r="I28" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="J28" s="240"/>
+      <c r="J28" s="232"/>
       <c r="K28" s="46"/>
       <c r="L28" s="9"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="1:17" ht="351">
+    <row r="29" spans="1:17" ht="183">
       <c r="A29" s="31" t="s">
         <v>59</v>
       </c>
@@ -3949,7 +3937,7 @@
         <v>61</v>
       </c>
       <c r="F29" s="89">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G29" s="90">
         <f>D29</f>
@@ -4036,10 +4024,10 @@
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A32" s="241" t="s">
+      <c r="A32" s="233" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="242"/>
+      <c r="B32" s="234"/>
       <c r="C32" s="47">
         <f>SUMPRODUCT(C29:C31,D29:D31)</f>
         <v>6</v>
@@ -4051,7 +4039,7 @@
       <c r="E32" s="49"/>
       <c r="F32" s="50">
         <f>SUMPRODUCT(F29:F31,G29:G31)</f>
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="G32" s="51">
         <f>SUM(G29:G31)</f>
@@ -4071,21 +4059,21 @@
       <c r="M32" s="56"/>
     </row>
     <row r="33" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A33" s="246" t="s">
+      <c r="A33" s="238" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="246"/>
-      <c r="C33" s="239" t="s">
+      <c r="B33" s="238"/>
+      <c r="C33" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="240"/>
+      <c r="D33" s="232"/>
       <c r="E33" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="F33" s="239" t="s">
+      <c r="F33" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="240"/>
+      <c r="G33" s="232"/>
       <c r="H33" s="46" t="s">
         <v>49</v>
       </c>
@@ -4234,10 +4222,10 @@
       <c r="M37" s="5"/>
     </row>
     <row r="38" spans="1:13" s="44" customFormat="1" ht="15.75">
-      <c r="A38" s="241" t="s">
+      <c r="A38" s="233" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="242"/>
+      <c r="B38" s="234"/>
       <c r="C38" s="69">
         <f>SUMPRODUCT(C34:C37,D34:D37)</f>
         <v>3.5</v>
@@ -4273,24 +4261,24 @@
         <v>82</v>
       </c>
       <c r="B39" s="45"/>
-      <c r="C39" s="239" t="s">
+      <c r="C39" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="240"/>
+      <c r="D39" s="232"/>
       <c r="E39" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="F39" s="239" t="s">
+      <c r="F39" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="G39" s="240"/>
+      <c r="G39" s="232"/>
       <c r="H39" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="I39" s="239" t="s">
+      <c r="I39" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="J39" s="240"/>
+      <c r="J39" s="232"/>
       <c r="K39" s="46"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
@@ -4553,7 +4541,7 @@
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
     </row>
-    <row r="47" spans="1:13" ht="91.5">
+    <row r="47" spans="1:13" ht="76.5">
       <c r="A47" s="23" t="s">
         <v>101</v>
       </c>
@@ -4570,14 +4558,14 @@
         <v>86</v>
       </c>
       <c r="F47" s="86">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G47" s="87">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="H47" s="88" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="I47" s="76">
         <v>0</v>
@@ -4592,10 +4580,10 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="23" t="s">
         <v>104</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>105</v>
       </c>
       <c r="C48" s="83">
         <v>1</v>
@@ -4628,10 +4616,10 @@
       <c r="M48" s="5"/>
     </row>
     <row r="49" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A49" s="241" t="s">
+      <c r="A49" s="233" t="s">
         <v>27</v>
       </c>
-      <c r="B49" s="242"/>
+      <c r="B49" s="234"/>
       <c r="C49" s="71">
         <f>SUMPRODUCT(C40:C48,D40:D48)</f>
         <v>40</v>
@@ -4643,7 +4631,7 @@
       <c r="E49" s="59"/>
       <c r="F49" s="70">
         <f>SUMPRODUCT(F40:F48,G40:G48)</f>
-        <v>28.5</v>
+        <v>30</v>
       </c>
       <c r="G49" s="51">
         <f>SUM(G40:G48)</f>
@@ -4667,38 +4655,38 @@
       <c r="Q49" s="44"/>
     </row>
     <row r="50" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A50" s="246" t="s">
-        <v>106</v>
-      </c>
-      <c r="B50" s="246"/>
-      <c r="C50" s="239" t="s">
+      <c r="A50" s="238" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="238"/>
+      <c r="C50" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="240"/>
+      <c r="D50" s="232"/>
       <c r="E50" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="F50" s="239" t="s">
+      <c r="F50" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="G50" s="240"/>
+      <c r="G50" s="232"/>
       <c r="H50" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="I50" s="239" t="s">
+      <c r="I50" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="J50" s="240"/>
+      <c r="J50" s="232"/>
       <c r="K50" s="46"/>
       <c r="L50" s="8"/>
       <c r="M50" s="4"/>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" s="29" t="s">
         <v>107</v>
-      </c>
-      <c r="B51" s="29" t="s">
-        <v>108</v>
       </c>
       <c r="C51" s="79">
         <v>1</v>
@@ -4726,10 +4714,10 @@
     </row>
     <row r="52" spans="1:17" ht="121.5">
       <c r="A52" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52" s="23" t="s">
         <v>109</v>
-      </c>
-      <c r="B52" s="23" t="s">
-        <v>110</v>
       </c>
       <c r="C52" s="83">
         <v>0.75</v>
@@ -4738,16 +4726,16 @@
         <v>2</v>
       </c>
       <c r="E52" s="85" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F52" s="86">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G52" s="87">
         <v>2</v>
       </c>
       <c r="H52" s="88" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I52" s="76">
         <v>0</v>
@@ -4759,12 +4747,12 @@
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
     </row>
-    <row r="53" spans="1:17" ht="91.5">
+    <row r="53" spans="1:17" ht="30.75">
       <c r="A53" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" s="23" t="s">
         <v>113</v>
-      </c>
-      <c r="B53" s="23" t="s">
-        <v>114</v>
       </c>
       <c r="C53" s="83">
         <v>1</v>
@@ -4774,13 +4762,13 @@
       </c>
       <c r="E53" s="85"/>
       <c r="F53" s="86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" s="87">
         <v>1</v>
       </c>
       <c r="H53" s="88" t="s">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="I53" s="76">
         <v>0</v>
@@ -4794,10 +4782,10 @@
     </row>
     <row r="54" spans="1:17" ht="60.75">
       <c r="A54" s="23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C54" s="83">
         <v>0.75</v>
@@ -4806,7 +4794,7 @@
         <v>4</v>
       </c>
       <c r="E54" s="85" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F54" s="86">
         <v>1</v>
@@ -4827,10 +4815,10 @@
     </row>
     <row r="55" spans="1:17" ht="30.75">
       <c r="A55" s="23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C55" s="83">
         <v>1</v>
@@ -4857,10 +4845,10 @@
       <c r="M55" s="5"/>
     </row>
     <row r="56" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A56" s="241" t="s">
+      <c r="A56" s="233" t="s">
         <v>27</v>
       </c>
-      <c r="B56" s="242"/>
+      <c r="B56" s="234"/>
       <c r="C56" s="57">
         <f>SUMPRODUCT(C51:C55,D51:D55)</f>
         <v>9.5</v>
@@ -4872,7 +4860,7 @@
       <c r="E56" s="59"/>
       <c r="F56" s="60">
         <f>SUMPRODUCT(F51:F55,G51:G55)</f>
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="G56" s="61">
         <f>SUM(G51:G55)</f>
@@ -4892,27 +4880,27 @@
       <c r="M56" s="56"/>
     </row>
     <row r="57" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A57" s="269" t="s">
+      <c r="A57" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="270"/>
-      <c r="C57" s="270"/>
-      <c r="D57" s="270"/>
-      <c r="E57" s="270"/>
-      <c r="F57" s="270"/>
-      <c r="G57" s="270"/>
-      <c r="H57" s="270"/>
-      <c r="I57" s="270"/>
-      <c r="J57" s="270"/>
-      <c r="K57" s="271"/>
+      <c r="B57" s="236"/>
+      <c r="C57" s="236"/>
+      <c r="D57" s="236"/>
+      <c r="E57" s="236"/>
+      <c r="F57" s="236"/>
+      <c r="G57" s="236"/>
+      <c r="H57" s="236"/>
+      <c r="I57" s="236"/>
+      <c r="J57" s="236"/>
+      <c r="K57" s="237"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
     </row>
     <row r="58" spans="1:17">
-      <c r="A58" s="256" t="s">
-        <v>121</v>
-      </c>
-      <c r="B58" s="257"/>
+      <c r="A58" s="239" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" s="240"/>
       <c r="C58" s="34">
         <f>C11+C18+C22+C27+C32+C38+C49+C56</f>
         <v>88.8</v>
@@ -4924,7 +4912,7 @@
       <c r="E58" s="26"/>
       <c r="F58" s="35">
         <f>F11+F18+F22+F27+F32+F38+F49+F56</f>
-        <v>73.3</v>
+        <v>78</v>
       </c>
       <c r="G58" s="27">
         <f>G11+G18+G22+G27+G32+G38+G49+G56</f>
@@ -4944,52 +4932,49 @@
       <c r="M58" s="5"/>
     </row>
     <row r="59" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A59" s="258" t="s">
-        <v>122</v>
-      </c>
-      <c r="B59" s="259"/>
-      <c r="C59" s="260">
+      <c r="A59" s="241" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="242"/>
+      <c r="C59" s="243">
         <f>C58/D58</f>
         <v>0.88800000000000001</v>
       </c>
-      <c r="D59" s="261"/>
-      <c r="E59" s="262"/>
-      <c r="F59" s="263">
+      <c r="D59" s="244"/>
+      <c r="E59" s="245"/>
+      <c r="F59" s="246">
         <f>F58/G58</f>
-        <v>0.73299999999999998</v>
-      </c>
-      <c r="G59" s="264"/>
-      <c r="H59" s="265"/>
-      <c r="I59" s="266">
+        <v>0.78</v>
+      </c>
+      <c r="G59" s="247"/>
+      <c r="H59" s="248"/>
+      <c r="I59" s="249">
         <f>I58/J58</f>
         <v>0</v>
       </c>
-      <c r="J59" s="267"/>
-      <c r="K59" s="268"/>
+      <c r="J59" s="250"/>
+      <c r="K59" s="251"/>
       <c r="L59" s="72"/>
       <c r="M59" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:K57"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="I59:K59"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="N6:P6"/>
@@ -5006,22 +4991,25 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="I28:J28"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="I59:K59"/>
+    <mergeCell ref="A57:K57"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A56:B56"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L18 L22 L27 L32 L38 L49 L11 C9:C10 F9:F10 I9:I10 C24:C26 F24:F26 I24:I26 C34:C37 F34:F37 I34:I37 C51:C55 F51:F55 I51:I55 I13:I17 F13:F17 C13:C17 I20:I21 F20:F21 C20:C21 I29:I31 F29:F31 C29:C31 I40:I48 F40:F48 C40:C48" xr:uid="{4A0D4DC8-F6F9-4765-AB49-E4E0ACDB1361}">
@@ -5080,7 +5068,7 @@
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="A4" s="36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -5103,19 +5091,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="130" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B7" s="131" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="131" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D7" s="131" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="131" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F7" s="131" t="s">
         <v>18</v>
@@ -5126,7 +5114,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="133" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B8" s="134">
         <v>1</v>
@@ -5142,13 +5130,13 @@
         <v>5</v>
       </c>
       <c r="F8" s="134" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G8" s="135"/>
     </row>
     <row r="9" spans="1:7" ht="30.75">
       <c r="A9" s="136" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B9" s="137">
         <v>0.75</v>
@@ -5164,15 +5152,15 @@
         <v>15</v>
       </c>
       <c r="F9" s="134" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="230" t="s">
         <v>128</v>
-      </c>
-      <c r="G9" s="230" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="133" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B10" s="134">
         <v>1</v>
@@ -5188,13 +5176,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="134" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G10" s="135"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="136" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B11" s="137">
         <v>1</v>
@@ -5210,13 +5198,13 @@
         <v>20</v>
       </c>
       <c r="F11" s="134" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G11" s="138"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="133" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B12" s="134">
         <v>1</v>
@@ -5232,13 +5220,13 @@
         <v>30</v>
       </c>
       <c r="F12" s="134" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G12" s="135"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="136" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B13" s="137">
         <v>1</v>
@@ -5254,13 +5242,13 @@
         <v>15</v>
       </c>
       <c r="F13" s="134" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G13" s="138"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="139" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B14" s="279"/>
       <c r="C14" s="279"/>
@@ -5277,7 +5265,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="143" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B15" s="144" t="s">
         <v>15</v>
@@ -5287,7 +5275,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="145" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F15" s="145"/>
       <c r="G15" s="146" t="s">
@@ -5296,7 +5284,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="147" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B16" s="148">
         <v>0.25</v>
@@ -5311,12 +5299,12 @@
       </c>
       <c r="F16" s="148"/>
       <c r="G16" s="150" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="151" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B17" s="152"/>
       <c r="C17" s="152"/>
@@ -5343,19 +5331,19 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="155" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B19" s="156" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="156" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D19" s="156" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="156" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F19" s="156" t="s">
         <v>18</v>
@@ -5366,7 +5354,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="158" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B20" s="159">
         <v>0.9</v>
@@ -5382,15 +5370,15 @@
         <v>13.5</v>
       </c>
       <c r="F20" s="159" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G20" s="160" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="161" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B21" s="162">
         <v>1</v>
@@ -5406,7 +5394,7 @@
         <v>20</v>
       </c>
       <c r="F21" s="159" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G21" s="214" t="s">
         <v>26</v>
@@ -5414,7 +5402,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="158" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B22" s="162">
         <v>1</v>
@@ -5430,7 +5418,7 @@
         <v>20</v>
       </c>
       <c r="F22" s="159" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G22" s="214" t="s">
         <v>26</v>
@@ -5438,7 +5426,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="161" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B23" s="162">
         <v>1</v>
@@ -5454,15 +5442,15 @@
         <v>22.5</v>
       </c>
       <c r="F23" s="159" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G23" s="214" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="158" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B24" s="162">
         <v>1</v>
@@ -5478,7 +5466,7 @@
         <v>15</v>
       </c>
       <c r="F24" s="159" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G24" s="214" t="s">
         <v>26</v>
@@ -5486,7 +5474,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="163" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B25" s="164"/>
       <c r="C25" s="164"/>
@@ -5503,7 +5491,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="167" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B26" s="168" t="s">
         <v>15</v>
@@ -5513,7 +5501,7 @@
         <v>4</v>
       </c>
       <c r="E26" s="169" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F26" s="169"/>
       <c r="G26" s="170" t="s">
@@ -5522,7 +5510,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="171" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B27" s="172">
         <v>0</v>
@@ -5540,7 +5528,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="175" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B28" s="176">
         <v>0</v>
@@ -5558,7 +5546,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="179" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B29" s="180">
         <v>0</v>
@@ -5587,19 +5575,19 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="183" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B31" s="184" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="184" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D31" s="184" t="s">
         <v>4</v>
       </c>
       <c r="E31" s="184" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F31" s="184" t="s">
         <v>18</v>
@@ -5610,7 +5598,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="186" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B32" s="187"/>
       <c r="C32" s="187"/>
@@ -5626,7 +5614,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="189" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B33" s="190"/>
       <c r="C33" s="190"/>
@@ -5642,7 +5630,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="186" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B34" s="187"/>
       <c r="C34" s="187"/>
@@ -5658,7 +5646,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="189" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B35" s="190"/>
       <c r="C35" s="190"/>
@@ -5674,7 +5662,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="186" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B36" s="187"/>
       <c r="C36" s="187"/>
@@ -5690,7 +5678,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="189" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B37" s="190"/>
       <c r="C37" s="190"/>
@@ -5706,7 +5694,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="192" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B38" s="193"/>
       <c r="C38" s="193"/>
@@ -5723,7 +5711,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="196" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B39" s="197" t="s">
         <v>15</v>
@@ -5733,7 +5721,7 @@
         <v>4</v>
       </c>
       <c r="E39" s="198" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F39" s="198"/>
       <c r="G39" s="199" t="s">
@@ -5742,7 +5730,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="200" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B40" s="201">
         <v>0</v>
@@ -5760,7 +5748,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="204" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B41" s="205">
         <v>0</v>
@@ -5778,7 +5766,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="208" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B42" s="209">
         <v>0</v>
@@ -5824,7 +5812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{101BADF3-C115-4BB7-A238-E0CBC556CE80}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -5838,11 +5826,11 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" customHeight="1">
       <c r="A1" s="283" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B1" s="283"/>
       <c r="D1" s="283" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E1" s="283"/>
     </row>
@@ -5858,23 +5846,23 @@
     </row>
     <row r="3" spans="1:5" ht="25.5" customHeight="1">
       <c r="A3" s="215" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B3" s="221"/>
       <c r="D3" s="215" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E3" s="221"/>
     </row>
     <row r="4" spans="1:5" ht="35.25" customHeight="1">
       <c r="A4" s="216" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B4" s="222">
         <v>1</v>
       </c>
       <c r="D4" s="216" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E4" s="222">
         <v>1</v>
@@ -5883,22 +5871,22 @@
     <row r="5" spans="1:5" ht="42" customHeight="1">
       <c r="A5" s="215"/>
       <c r="B5" s="223" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D5" s="215"/>
       <c r="E5" s="223" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5">
       <c r="A6" s="216" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B6" s="222">
         <v>5</v>
       </c>
       <c r="D6" s="216" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E6" s="222">
         <v>5</v>
@@ -5907,22 +5895,22 @@
     <row r="7" spans="1:5" ht="64.5">
       <c r="A7" s="215"/>
       <c r="B7" s="221" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D7" s="215"/>
       <c r="E7" s="221" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5">
       <c r="A8" s="216" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B8" s="222">
         <v>7</v>
       </c>
       <c r="D8" s="216" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E8" s="222">
         <v>10</v>
@@ -5931,16 +5919,16 @@
     <row r="9" spans="1:5" ht="81">
       <c r="A9" s="215"/>
       <c r="B9" s="224" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D9" s="217"/>
       <c r="E9" s="224" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5">
       <c r="A10" s="216" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B10" s="222">
         <v>2</v>
@@ -5949,18 +5937,18 @@
     <row r="11" spans="1:5" ht="148.5" customHeight="1">
       <c r="A11" s="217"/>
       <c r="B11" s="224" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5">
       <c r="A12" s="218" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B12" s="222">
         <v>0.75</v>
       </c>
       <c r="D12" s="218" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E12" s="227">
         <v>0.9</v>
@@ -5969,23 +5957,23 @@
     <row r="13" spans="1:5" ht="16.5">
       <c r="A13" s="215"/>
       <c r="B13" s="224" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D13" s="215"/>
       <c r="E13" s="224" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5">
       <c r="A14" s="219" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B14" s="225">
         <f>SUM(B4,B6,B8,B10)</f>
         <v>15</v>
       </c>
       <c r="D14" s="219" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E14" s="225">
         <f>SUM(E4,E6,E8)</f>
@@ -5994,14 +5982,14 @@
     </row>
     <row r="15" spans="1:5" ht="16.5">
       <c r="A15" s="219" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B15" s="225">
         <f>B12</f>
         <v>0.75</v>
       </c>
       <c r="D15" s="219" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E15" s="225">
         <f>E12</f>
@@ -6010,14 +5998,14 @@
     </row>
     <row r="16" spans="1:5" ht="16.5">
       <c r="A16" s="220" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B16" s="226">
         <f>B14/20*0.9+B15*0.1</f>
         <v>0.75</v>
       </c>
       <c r="D16" s="220" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E16" s="226">
         <f>E14/20*0.9+E15*0.1</f>
@@ -6034,6 +6022,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B41E0342602C49449CD93109DBCAB8C5" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4cab946e3812a26735e8b0dc00d59aca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d3ea4e87-b30d-4ccc-9564-7710f23c54f0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afa808ced5dc9827eedaaa69eb8b35dd" ns2:_="">
     <xsd:import namespace="d3ea4e87-b30d-4ccc-9564-7710f23c54f0"/>
@@ -6165,12 +6159,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6181,11 +6169,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Equipe207.xlsx
+++ b/Equipe207.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="249" documentId="8_{6BB8C8F4-817F-4135-A9EF-0E7E368F1CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47B69A55-D88C-4596-A595-C21B8A202E59}"/>
+  <xr:revisionPtr revIDLastSave="254" documentId="8_{6BB8C8F4-817F-4135-A9EF-0E7E368F1CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65732D47-656B-4077-BE80-31274F7B8AAC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="3" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sommaire" sheetId="9" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="175">
   <si>
     <t>Fonct.</t>
   </si>
@@ -593,10 +593,6 @@
   </si>
   <si>
     <t>Vos alt sont mal fait. Bon travail pour le reste</t>
-  </si>
-  <si>
-    <t>Expliquer les cas dans lesquels le serveur retourne une erreur
-Ce n'est pas très utile de specifier les "Événements Potentiellement déclenchés"  si vous n'expliquez pas les circonstances</t>
   </si>
   <si>
     <t>4 Vue de déploiement /3</t>
@@ -2367,6 +2363,30 @@
     <xf numFmtId="0" fontId="14" fillId="19" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2379,6 +2399,84 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="8" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="9" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2387,108 +2485,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="8" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="9" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2990,7 +2986,7 @@
       </c>
       <c r="B5" s="113">
         <f>(Fonctionnalités!E25)</f>
-        <v>0.91</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="C5" s="113">
         <f>'Assurance Qualité'!F59</f>
@@ -2998,7 +2994,7 @@
       </c>
       <c r="D5" s="113">
         <f t="shared" ref="D5:D6" si="0">B5*0.6+C5*0.4 - 0.1*E5</f>
-        <v>0.8580000000000001</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="E5" s="114"/>
       <c r="F5" s="115">
@@ -3006,11 +3002,11 @@
       </c>
       <c r="G5" s="116">
         <f t="shared" ref="G5:G7" si="1">D5*F5</f>
-        <v>17.160000000000004</v>
+        <v>17.7</v>
       </c>
       <c r="H5" s="116">
         <f>Documents!E16*5</f>
-        <v>4.0500000000000007</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3066,7 +3062,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
@@ -3086,36 +3082,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A2" s="263" t="s">
+      <c r="A2" s="231" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="263"/>
-      <c r="C2" s="263"/>
-      <c r="D2" s="263"/>
-      <c r="E2" s="263"/>
-      <c r="F2" s="263"/>
-      <c r="G2" s="263"/>
-      <c r="H2" s="263"/>
-      <c r="I2" s="263"/>
-      <c r="J2" s="263"/>
-      <c r="K2" s="263"/>
+      <c r="B2" s="231"/>
+      <c r="C2" s="231"/>
+      <c r="D2" s="231"/>
+      <c r="E2" s="231"/>
+      <c r="F2" s="231"/>
+      <c r="G2" s="231"/>
+      <c r="H2" s="231"/>
+      <c r="I2" s="231"/>
+      <c r="J2" s="231"/>
+      <c r="K2" s="231"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="4" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A4" s="264" t="s">
+      <c r="A4" s="232" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="264"/>
-      <c r="C4" s="264"/>
-      <c r="D4" s="264"/>
-      <c r="E4" s="264"/>
-      <c r="F4" s="264"/>
-      <c r="G4" s="264"/>
-      <c r="H4" s="264"/>
-      <c r="I4" s="264"/>
-      <c r="J4" s="264"/>
-      <c r="K4" s="264"/>
+      <c r="B4" s="232"/>
+      <c r="C4" s="232"/>
+      <c r="D4" s="232"/>
+      <c r="E4" s="232"/>
+      <c r="F4" s="232"/>
+      <c r="G4" s="232"/>
+      <c r="H4" s="232"/>
+      <c r="I4" s="232"/>
+      <c r="J4" s="232"/>
+      <c r="K4" s="232"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
@@ -3135,36 +3131,36 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A6" s="256" t="s">
+      <c r="A6" s="249" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="268" t="s">
+      <c r="B6" s="236" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="258" t="s">
+      <c r="C6" s="251" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="259"/>
-      <c r="E6" s="259"/>
-      <c r="F6" s="260" t="s">
+      <c r="D6" s="252"/>
+      <c r="E6" s="252"/>
+      <c r="F6" s="253" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="261"/>
-      <c r="H6" s="262"/>
-      <c r="I6" s="265" t="s">
+      <c r="G6" s="254"/>
+      <c r="H6" s="255"/>
+      <c r="I6" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="266"/>
-      <c r="K6" s="267"/>
+      <c r="J6" s="234"/>
+      <c r="K6" s="235"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="254"/>
-      <c r="O6" s="255"/>
-      <c r="P6" s="255"/>
+      <c r="N6" s="247"/>
+      <c r="O6" s="248"/>
+      <c r="P6" s="248"/>
     </row>
     <row r="7" spans="1:17" ht="18.75">
-      <c r="A7" s="257"/>
-      <c r="B7" s="269"/>
+      <c r="A7" s="250"/>
+      <c r="B7" s="237"/>
       <c r="C7" s="14" t="s">
         <v>15</v>
       </c>
@@ -3200,28 +3196,28 @@
       <c r="Q7" s="40"/>
     </row>
     <row r="8" spans="1:17" ht="18.75">
-      <c r="A8" s="238" t="s">
+      <c r="A8" s="246" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="238"/>
-      <c r="C8" s="231" t="s">
+      <c r="B8" s="246"/>
+      <c r="C8" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="232"/>
+      <c r="D8" s="240"/>
       <c r="E8" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="231" t="s">
+      <c r="F8" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="232"/>
+      <c r="G8" s="240"/>
       <c r="H8" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="231" t="s">
+      <c r="I8" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="232"/>
+      <c r="J8" s="240"/>
       <c r="K8" s="46"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -3309,10 +3305,10 @@
       <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A11" s="233" t="s">
+      <c r="A11" s="241" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="234"/>
+      <c r="B11" s="242"/>
       <c r="C11" s="47">
         <f>SUMPRODUCT(C6:C10,D6:D10)</f>
         <v>8</v>
@@ -3348,28 +3344,28 @@
       <c r="Q11" s="44"/>
     </row>
     <row r="12" spans="1:17" s="12" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A12" s="238" t="s">
+      <c r="A12" s="246" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="238"/>
-      <c r="C12" s="231" t="s">
+      <c r="B12" s="246"/>
+      <c r="C12" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="232"/>
+      <c r="D12" s="240"/>
       <c r="E12" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="231" t="s">
+      <c r="F12" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="232"/>
+      <c r="G12" s="240"/>
       <c r="H12" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="231" t="s">
+      <c r="I12" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="232"/>
+      <c r="J12" s="240"/>
       <c r="K12" s="46"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -3564,10 +3560,10 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A18" s="233" t="s">
+      <c r="A18" s="241" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="234"/>
+      <c r="B18" s="242"/>
       <c r="C18" s="47">
         <f>SUMPRODUCT(C13:C17,D13:D17)</f>
         <v>13.8</v>
@@ -3603,28 +3599,28 @@
       <c r="Q18" s="44"/>
     </row>
     <row r="19" spans="1:17" s="43" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A19" s="270" t="s">
+      <c r="A19" s="238" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="270"/>
-      <c r="C19" s="231" t="s">
+      <c r="B19" s="238"/>
+      <c r="C19" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="232"/>
+      <c r="D19" s="240"/>
       <c r="E19" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="231" t="s">
+      <c r="F19" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="232"/>
+      <c r="G19" s="240"/>
       <c r="H19" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="231" t="s">
+      <c r="I19" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="232"/>
+      <c r="J19" s="240"/>
       <c r="K19" s="46"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
@@ -3700,10 +3696,10 @@
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A22" s="271" t="s">
+      <c r="A22" s="243" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="253"/>
+      <c r="B22" s="244"/>
       <c r="C22" s="57">
         <f>SUMPRODUCT(C20:C21,D20:D21)</f>
         <v>6</v>
@@ -3739,24 +3735,24 @@
         <v>48</v>
       </c>
       <c r="B23" s="213"/>
-      <c r="C23" s="231" t="s">
+      <c r="C23" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="232"/>
+      <c r="D23" s="240"/>
       <c r="E23" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="231" t="s">
+      <c r="F23" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="232"/>
+      <c r="G23" s="240"/>
       <c r="H23" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="231" t="s">
+      <c r="I23" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="J23" s="232"/>
+      <c r="J23" s="240"/>
       <c r="K23" s="46"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -3859,10 +3855,10 @@
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A27" s="252" t="s">
+      <c r="A27" s="245" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="253"/>
+      <c r="B27" s="244"/>
       <c r="C27" s="47">
         <f>SUMPRODUCT(C24:C26,D24:D26)</f>
         <v>2</v>
@@ -3894,28 +3890,28 @@
       <c r="M27" s="56"/>
     </row>
     <row r="28" spans="1:17" ht="21" customHeight="1">
-      <c r="A28" s="270" t="s">
+      <c r="A28" s="238" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="270"/>
-      <c r="C28" s="231" t="s">
+      <c r="B28" s="238"/>
+      <c r="C28" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="232"/>
+      <c r="D28" s="240"/>
       <c r="E28" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="F28" s="231" t="s">
+      <c r="F28" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="232"/>
+      <c r="G28" s="240"/>
       <c r="H28" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="I28" s="231" t="s">
+      <c r="I28" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="J28" s="232"/>
+      <c r="J28" s="240"/>
       <c r="K28" s="46"/>
       <c r="L28" s="9"/>
       <c r="M28" s="4"/>
@@ -4024,10 +4020,10 @@
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A32" s="233" t="s">
+      <c r="A32" s="241" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="234"/>
+      <c r="B32" s="242"/>
       <c r="C32" s="47">
         <f>SUMPRODUCT(C29:C31,D29:D31)</f>
         <v>6</v>
@@ -4059,21 +4055,21 @@
       <c r="M32" s="56"/>
     </row>
     <row r="33" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A33" s="238" t="s">
+      <c r="A33" s="246" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="238"/>
-      <c r="C33" s="231" t="s">
+      <c r="B33" s="246"/>
+      <c r="C33" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="232"/>
+      <c r="D33" s="240"/>
       <c r="E33" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="F33" s="231" t="s">
+      <c r="F33" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="232"/>
+      <c r="G33" s="240"/>
       <c r="H33" s="46" t="s">
         <v>49</v>
       </c>
@@ -4222,10 +4218,10 @@
       <c r="M37" s="5"/>
     </row>
     <row r="38" spans="1:13" s="44" customFormat="1" ht="15.75">
-      <c r="A38" s="233" t="s">
+      <c r="A38" s="241" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="234"/>
+      <c r="B38" s="242"/>
       <c r="C38" s="69">
         <f>SUMPRODUCT(C34:C37,D34:D37)</f>
         <v>3.5</v>
@@ -4261,24 +4257,24 @@
         <v>82</v>
       </c>
       <c r="B39" s="45"/>
-      <c r="C39" s="231" t="s">
+      <c r="C39" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="232"/>
+      <c r="D39" s="240"/>
       <c r="E39" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="F39" s="231" t="s">
+      <c r="F39" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="G39" s="232"/>
+      <c r="G39" s="240"/>
       <c r="H39" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="I39" s="231" t="s">
+      <c r="I39" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="J39" s="232"/>
+      <c r="J39" s="240"/>
       <c r="K39" s="46"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
@@ -4616,10 +4612,10 @@
       <c r="M48" s="5"/>
     </row>
     <row r="49" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A49" s="233" t="s">
+      <c r="A49" s="241" t="s">
         <v>27</v>
       </c>
-      <c r="B49" s="234"/>
+      <c r="B49" s="242"/>
       <c r="C49" s="71">
         <f>SUMPRODUCT(C40:C48,D40:D48)</f>
         <v>40</v>
@@ -4655,28 +4651,28 @@
       <c r="Q49" s="44"/>
     </row>
     <row r="50" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A50" s="238" t="s">
+      <c r="A50" s="246" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="238"/>
-      <c r="C50" s="231" t="s">
+      <c r="B50" s="246"/>
+      <c r="C50" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="232"/>
+      <c r="D50" s="240"/>
       <c r="E50" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="F50" s="231" t="s">
+      <c r="F50" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="G50" s="232"/>
+      <c r="G50" s="240"/>
       <c r="H50" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="I50" s="231" t="s">
+      <c r="I50" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="J50" s="232"/>
+      <c r="J50" s="240"/>
       <c r="K50" s="46"/>
       <c r="L50" s="8"/>
       <c r="M50" s="4"/>
@@ -4845,10 +4841,10 @@
       <c r="M55" s="5"/>
     </row>
     <row r="56" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A56" s="233" t="s">
+      <c r="A56" s="241" t="s">
         <v>27</v>
       </c>
-      <c r="B56" s="234"/>
+      <c r="B56" s="242"/>
       <c r="C56" s="57">
         <f>SUMPRODUCT(C51:C55,D51:D55)</f>
         <v>9.5</v>
@@ -4880,27 +4876,27 @@
       <c r="M56" s="56"/>
     </row>
     <row r="57" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A57" s="235" t="s">
+      <c r="A57" s="269" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="236"/>
-      <c r="C57" s="236"/>
-      <c r="D57" s="236"/>
-      <c r="E57" s="236"/>
-      <c r="F57" s="236"/>
-      <c r="G57" s="236"/>
-      <c r="H57" s="236"/>
-      <c r="I57" s="236"/>
-      <c r="J57" s="236"/>
-      <c r="K57" s="237"/>
+      <c r="B57" s="270"/>
+      <c r="C57" s="270"/>
+      <c r="D57" s="270"/>
+      <c r="E57" s="270"/>
+      <c r="F57" s="270"/>
+      <c r="G57" s="270"/>
+      <c r="H57" s="270"/>
+      <c r="I57" s="270"/>
+      <c r="J57" s="270"/>
+      <c r="K57" s="271"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
     </row>
     <row r="58" spans="1:17">
-      <c r="A58" s="239" t="s">
+      <c r="A58" s="256" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="240"/>
+      <c r="B58" s="257"/>
       <c r="C58" s="34">
         <f>C11+C18+C22+C27+C32+C38+C49+C56</f>
         <v>88.8</v>
@@ -4932,33 +4928,68 @@
       <c r="M58" s="5"/>
     </row>
     <row r="59" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A59" s="241" t="s">
+      <c r="A59" s="258" t="s">
         <v>120</v>
       </c>
-      <c r="B59" s="242"/>
-      <c r="C59" s="243">
+      <c r="B59" s="259"/>
+      <c r="C59" s="260">
         <f>C58/D58</f>
         <v>0.88800000000000001</v>
       </c>
-      <c r="D59" s="244"/>
-      <c r="E59" s="245"/>
-      <c r="F59" s="246">
+      <c r="D59" s="261"/>
+      <c r="E59" s="262"/>
+      <c r="F59" s="263">
         <f>F58/G58</f>
         <v>0.78</v>
       </c>
-      <c r="G59" s="247"/>
-      <c r="H59" s="248"/>
-      <c r="I59" s="249">
+      <c r="G59" s="264"/>
+      <c r="H59" s="265"/>
+      <c r="I59" s="266">
         <f>I58/J58</f>
         <v>0</v>
       </c>
-      <c r="J59" s="250"/>
-      <c r="K59" s="251"/>
+      <c r="J59" s="267"/>
+      <c r="K59" s="268"/>
       <c r="L59" s="72"/>
       <c r="M59" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:K57"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="I59:K59"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="I28:J28"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="I6:K6"/>
@@ -4975,41 +5006,6 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="I59:K59"/>
-    <mergeCell ref="A57:K57"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A56:B56"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L18 L22 L27 L32 L38 L49 L11 C9:C10 F9:F10 I9:I10 C24:C26 F24:F26 I24:I26 C34:C37 F34:F37 I34:I37 C51:C55 F51:F55 I51:I55 I13:I17 F13:F17 C13:C17 I20:I21 F20:F21 C20:C21 I29:I31 F29:F31 C29:C31 I40:I48 F40:F48 C40:C48" xr:uid="{4A0D4DC8-F6F9-4765-AB49-E4E0ACDB1361}">
@@ -5032,7 +5028,7 @@
   <dimension ref="A2:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -5432,14 +5428,14 @@
         <v>1</v>
       </c>
       <c r="C23" s="162">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="D23" s="162">
         <v>30</v>
       </c>
       <c r="E23" s="162">
         <f t="shared" si="1"/>
-        <v>22.5</v>
+        <v>27</v>
       </c>
       <c r="F23" s="159" t="s">
         <v>126</v>
@@ -5484,7 +5480,7 @@
       </c>
       <c r="E25" s="165">
         <f>(SUM(E20:E24) + E27+E28+E29)/D25</f>
-        <v>0.91</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="F25" s="165"/>
       <c r="G25" s="166"/>
@@ -5813,7 +5809,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5913,22 +5909,20 @@
         <v>165</v>
       </c>
       <c r="E8" s="222">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="81">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5">
       <c r="A9" s="215"/>
       <c r="B9" s="224" t="s">
         <v>166</v>
       </c>
       <c r="D9" s="217"/>
-      <c r="E9" s="224" t="s">
-        <v>167</v>
-      </c>
+      <c r="E9" s="224"/>
     </row>
     <row r="10" spans="1:5" ht="16.5">
       <c r="A10" s="216" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B10" s="222">
         <v>2</v>
@@ -5937,18 +5931,18 @@
     <row r="11" spans="1:5" ht="148.5" customHeight="1">
       <c r="A11" s="217"/>
       <c r="B11" s="224" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5">
       <c r="A12" s="218" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B12" s="222">
         <v>0.75</v>
       </c>
       <c r="D12" s="218" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E12" s="227">
         <v>0.9</v>
@@ -5957,39 +5951,39 @@
     <row r="13" spans="1:5" ht="16.5">
       <c r="A13" s="215"/>
       <c r="B13" s="224" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D13" s="215"/>
       <c r="E13" s="224" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5">
       <c r="A14" s="219" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B14" s="225">
         <f>SUM(B4,B6,B8,B10)</f>
         <v>15</v>
       </c>
       <c r="D14" s="219" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E14" s="225">
         <f>SUM(E4,E6,E8)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5">
       <c r="A15" s="219" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B15" s="225">
         <f>B12</f>
         <v>0.75</v>
       </c>
       <c r="D15" s="219" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E15" s="225">
         <f>E12</f>
@@ -5998,18 +5992,18 @@
     </row>
     <row r="16" spans="1:5" ht="16.5">
       <c r="A16" s="220" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B16" s="226">
         <f>B14/20*0.9+B15*0.1</f>
         <v>0.75</v>
       </c>
       <c r="D16" s="220" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E16" s="226">
         <f>E14/20*0.9+E15*0.1</f>
-        <v>0.81</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -6022,9 +6016,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6160,16 +6157,13 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6177,5 +6171,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
 </file>
--- a/Equipe207.xlsx
+++ b/Equipe207.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="254" documentId="8_{6BB8C8F4-817F-4135-A9EF-0E7E368F1CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65732D47-656B-4077-BE80-31274F7B8AAC}"/>
+  <xr:revisionPtr revIDLastSave="258" documentId="8_{6BB8C8F4-817F-4135-A9EF-0E7E368F1CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E52C952-C24D-4AC2-9719-58726C217389}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sommaire" sheetId="9" r:id="rId1"/>
@@ -368,8 +368,8 @@
     <t>Il n'y a pas de duplication de code.</t>
   </si>
   <si>
-    <t>server\app\gateway\game\game.gateway.spec.ts [5:1 - 11:12] (6 lines, 97 tokens)
-server\app\gateway\join\join.gateway.spec.ts [1:1 - 7:12]
+    <t>server\app\gateway\game\game.gateway.ts [69:32 - 74:26] (5 lines, 104 tokens)
+server\app\gateway\game\game.gateway.ts [60:24 - 65:18]
 client\src\app\pages\host-game-page\host-game-page.component.ts [54:2 - 60:5] (6 lines, 74 tokens)
 client\src\app\pages\waiting-page\waiting-page.component.ts [60:7 - 66:2]
 client\src\app\events\game.events.ts [1:1 - 16:16] (15 lines, 121 tokens)
@@ -2363,6 +2363,102 @@
     <xf numFmtId="0" fontId="14" fillId="19" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="8" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="9" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2387,104 +2483,8 @@
     <xf numFmtId="0" fontId="12" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="8" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="9" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3062,8 +3062,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" topLeftCell="B44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3082,36 +3082,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A2" s="231" t="s">
+      <c r="A2" s="263" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="231"/>
-      <c r="C2" s="231"/>
-      <c r="D2" s="231"/>
-      <c r="E2" s="231"/>
-      <c r="F2" s="231"/>
-      <c r="G2" s="231"/>
-      <c r="H2" s="231"/>
-      <c r="I2" s="231"/>
-      <c r="J2" s="231"/>
-      <c r="K2" s="231"/>
+      <c r="B2" s="263"/>
+      <c r="C2" s="263"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="263"/>
+      <c r="F2" s="263"/>
+      <c r="G2" s="263"/>
+      <c r="H2" s="263"/>
+      <c r="I2" s="263"/>
+      <c r="J2" s="263"/>
+      <c r="K2" s="263"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="4" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A4" s="232" t="s">
+      <c r="A4" s="264" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="232"/>
-      <c r="C4" s="232"/>
-      <c r="D4" s="232"/>
-      <c r="E4" s="232"/>
-      <c r="F4" s="232"/>
-      <c r="G4" s="232"/>
-      <c r="H4" s="232"/>
-      <c r="I4" s="232"/>
-      <c r="J4" s="232"/>
-      <c r="K4" s="232"/>
+      <c r="B4" s="264"/>
+      <c r="C4" s="264"/>
+      <c r="D4" s="264"/>
+      <c r="E4" s="264"/>
+      <c r="F4" s="264"/>
+      <c r="G4" s="264"/>
+      <c r="H4" s="264"/>
+      <c r="I4" s="264"/>
+      <c r="J4" s="264"/>
+      <c r="K4" s="264"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
@@ -3131,36 +3131,36 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A6" s="249" t="s">
+      <c r="A6" s="256" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="236" t="s">
+      <c r="B6" s="268" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="251" t="s">
+      <c r="C6" s="258" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="252"/>
-      <c r="E6" s="252"/>
-      <c r="F6" s="253" t="s">
+      <c r="D6" s="259"/>
+      <c r="E6" s="259"/>
+      <c r="F6" s="260" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="254"/>
-      <c r="H6" s="255"/>
-      <c r="I6" s="233" t="s">
+      <c r="G6" s="261"/>
+      <c r="H6" s="262"/>
+      <c r="I6" s="265" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="234"/>
-      <c r="K6" s="235"/>
+      <c r="J6" s="266"/>
+      <c r="K6" s="267"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="247"/>
-      <c r="O6" s="248"/>
-      <c r="P6" s="248"/>
+      <c r="N6" s="254"/>
+      <c r="O6" s="255"/>
+      <c r="P6" s="255"/>
     </row>
     <row r="7" spans="1:17" ht="18.75">
-      <c r="A7" s="250"/>
-      <c r="B7" s="237"/>
+      <c r="A7" s="257"/>
+      <c r="B7" s="269"/>
       <c r="C7" s="14" t="s">
         <v>15</v>
       </c>
@@ -3196,28 +3196,28 @@
       <c r="Q7" s="40"/>
     </row>
     <row r="8" spans="1:17" ht="18.75">
-      <c r="A8" s="246" t="s">
+      <c r="A8" s="238" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="246"/>
-      <c r="C8" s="239" t="s">
+      <c r="B8" s="238"/>
+      <c r="C8" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="240"/>
+      <c r="D8" s="232"/>
       <c r="E8" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="239" t="s">
+      <c r="F8" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="240"/>
+      <c r="G8" s="232"/>
       <c r="H8" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="239" t="s">
+      <c r="I8" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="240"/>
+      <c r="J8" s="232"/>
       <c r="K8" s="46"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -3305,10 +3305,10 @@
       <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A11" s="241" t="s">
+      <c r="A11" s="233" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="242"/>
+      <c r="B11" s="234"/>
       <c r="C11" s="47">
         <f>SUMPRODUCT(C6:C10,D6:D10)</f>
         <v>8</v>
@@ -3344,28 +3344,28 @@
       <c r="Q11" s="44"/>
     </row>
     <row r="12" spans="1:17" s="12" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A12" s="246" t="s">
+      <c r="A12" s="238" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="246"/>
-      <c r="C12" s="239" t="s">
+      <c r="B12" s="238"/>
+      <c r="C12" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="240"/>
+      <c r="D12" s="232"/>
       <c r="E12" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="239" t="s">
+      <c r="F12" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="240"/>
+      <c r="G12" s="232"/>
       <c r="H12" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="239" t="s">
+      <c r="I12" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="240"/>
+      <c r="J12" s="232"/>
       <c r="K12" s="46"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -3560,10 +3560,10 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A18" s="241" t="s">
+      <c r="A18" s="233" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="242"/>
+      <c r="B18" s="234"/>
       <c r="C18" s="47">
         <f>SUMPRODUCT(C13:C17,D13:D17)</f>
         <v>13.8</v>
@@ -3599,28 +3599,28 @@
       <c r="Q18" s="44"/>
     </row>
     <row r="19" spans="1:17" s="43" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A19" s="238" t="s">
+      <c r="A19" s="270" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="238"/>
-      <c r="C19" s="239" t="s">
+      <c r="B19" s="270"/>
+      <c r="C19" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="240"/>
+      <c r="D19" s="232"/>
       <c r="E19" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="239" t="s">
+      <c r="F19" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="240"/>
+      <c r="G19" s="232"/>
       <c r="H19" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="239" t="s">
+      <c r="I19" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="240"/>
+      <c r="J19" s="232"/>
       <c r="K19" s="46"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
@@ -3696,10 +3696,10 @@
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A22" s="243" t="s">
+      <c r="A22" s="271" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="244"/>
+      <c r="B22" s="253"/>
       <c r="C22" s="57">
         <f>SUMPRODUCT(C20:C21,D20:D21)</f>
         <v>6</v>
@@ -3735,24 +3735,24 @@
         <v>48</v>
       </c>
       <c r="B23" s="213"/>
-      <c r="C23" s="239" t="s">
+      <c r="C23" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="240"/>
+      <c r="D23" s="232"/>
       <c r="E23" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="239" t="s">
+      <c r="F23" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="240"/>
+      <c r="G23" s="232"/>
       <c r="H23" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="239" t="s">
+      <c r="I23" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="J23" s="240"/>
+      <c r="J23" s="232"/>
       <c r="K23" s="46"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -3855,10 +3855,10 @@
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A27" s="245" t="s">
+      <c r="A27" s="252" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="244"/>
+      <c r="B27" s="253"/>
       <c r="C27" s="47">
         <f>SUMPRODUCT(C24:C26,D24:D26)</f>
         <v>2</v>
@@ -3890,28 +3890,28 @@
       <c r="M27" s="56"/>
     </row>
     <row r="28" spans="1:17" ht="21" customHeight="1">
-      <c r="A28" s="238" t="s">
+      <c r="A28" s="270" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="238"/>
-      <c r="C28" s="239" t="s">
+      <c r="B28" s="270"/>
+      <c r="C28" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="240"/>
+      <c r="D28" s="232"/>
       <c r="E28" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="F28" s="239" t="s">
+      <c r="F28" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="240"/>
+      <c r="G28" s="232"/>
       <c r="H28" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="I28" s="239" t="s">
+      <c r="I28" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="J28" s="240"/>
+      <c r="J28" s="232"/>
       <c r="K28" s="46"/>
       <c r="L28" s="9"/>
       <c r="M28" s="4"/>
@@ -4020,10 +4020,10 @@
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A32" s="241" t="s">
+      <c r="A32" s="233" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="242"/>
+      <c r="B32" s="234"/>
       <c r="C32" s="47">
         <f>SUMPRODUCT(C29:C31,D29:D31)</f>
         <v>6</v>
@@ -4055,21 +4055,21 @@
       <c r="M32" s="56"/>
     </row>
     <row r="33" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A33" s="246" t="s">
+      <c r="A33" s="238" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="246"/>
-      <c r="C33" s="239" t="s">
+      <c r="B33" s="238"/>
+      <c r="C33" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="240"/>
+      <c r="D33" s="232"/>
       <c r="E33" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="F33" s="239" t="s">
+      <c r="F33" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="240"/>
+      <c r="G33" s="232"/>
       <c r="H33" s="46" t="s">
         <v>49</v>
       </c>
@@ -4218,10 +4218,10 @@
       <c r="M37" s="5"/>
     </row>
     <row r="38" spans="1:13" s="44" customFormat="1" ht="15.75">
-      <c r="A38" s="241" t="s">
+      <c r="A38" s="233" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="242"/>
+      <c r="B38" s="234"/>
       <c r="C38" s="69">
         <f>SUMPRODUCT(C34:C37,D34:D37)</f>
         <v>3.5</v>
@@ -4257,24 +4257,24 @@
         <v>82</v>
       </c>
       <c r="B39" s="45"/>
-      <c r="C39" s="239" t="s">
+      <c r="C39" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="240"/>
+      <c r="D39" s="232"/>
       <c r="E39" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="F39" s="239" t="s">
+      <c r="F39" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="G39" s="240"/>
+      <c r="G39" s="232"/>
       <c r="H39" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="I39" s="239" t="s">
+      <c r="I39" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="J39" s="240"/>
+      <c r="J39" s="232"/>
       <c r="K39" s="46"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
@@ -4612,10 +4612,10 @@
       <c r="M48" s="5"/>
     </row>
     <row r="49" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A49" s="241" t="s">
+      <c r="A49" s="233" t="s">
         <v>27</v>
       </c>
-      <c r="B49" s="242"/>
+      <c r="B49" s="234"/>
       <c r="C49" s="71">
         <f>SUMPRODUCT(C40:C48,D40:D48)</f>
         <v>40</v>
@@ -4651,28 +4651,28 @@
       <c r="Q49" s="44"/>
     </row>
     <row r="50" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A50" s="246" t="s">
+      <c r="A50" s="238" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="246"/>
-      <c r="C50" s="239" t="s">
+      <c r="B50" s="238"/>
+      <c r="C50" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="240"/>
+      <c r="D50" s="232"/>
       <c r="E50" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="F50" s="239" t="s">
+      <c r="F50" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="G50" s="240"/>
+      <c r="G50" s="232"/>
       <c r="H50" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="I50" s="239" t="s">
+      <c r="I50" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="J50" s="240"/>
+      <c r="J50" s="232"/>
       <c r="K50" s="46"/>
       <c r="L50" s="8"/>
       <c r="M50" s="4"/>
@@ -4841,10 +4841,10 @@
       <c r="M55" s="5"/>
     </row>
     <row r="56" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A56" s="241" t="s">
+      <c r="A56" s="233" t="s">
         <v>27</v>
       </c>
-      <c r="B56" s="242"/>
+      <c r="B56" s="234"/>
       <c r="C56" s="57">
         <f>SUMPRODUCT(C51:C55,D51:D55)</f>
         <v>9.5</v>
@@ -4876,27 +4876,27 @@
       <c r="M56" s="56"/>
     </row>
     <row r="57" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A57" s="269" t="s">
+      <c r="A57" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="270"/>
-      <c r="C57" s="270"/>
-      <c r="D57" s="270"/>
-      <c r="E57" s="270"/>
-      <c r="F57" s="270"/>
-      <c r="G57" s="270"/>
-      <c r="H57" s="270"/>
-      <c r="I57" s="270"/>
-      <c r="J57" s="270"/>
-      <c r="K57" s="271"/>
+      <c r="B57" s="236"/>
+      <c r="C57" s="236"/>
+      <c r="D57" s="236"/>
+      <c r="E57" s="236"/>
+      <c r="F57" s="236"/>
+      <c r="G57" s="236"/>
+      <c r="H57" s="236"/>
+      <c r="I57" s="236"/>
+      <c r="J57" s="236"/>
+      <c r="K57" s="237"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
     </row>
     <row r="58" spans="1:17">
-      <c r="A58" s="256" t="s">
+      <c r="A58" s="239" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="257"/>
+      <c r="B58" s="240"/>
       <c r="C58" s="34">
         <f>C11+C18+C22+C27+C32+C38+C49+C56</f>
         <v>88.8</v>
@@ -4928,52 +4928,49 @@
       <c r="M58" s="5"/>
     </row>
     <row r="59" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A59" s="258" t="s">
+      <c r="A59" s="241" t="s">
         <v>120</v>
       </c>
-      <c r="B59" s="259"/>
-      <c r="C59" s="260">
+      <c r="B59" s="242"/>
+      <c r="C59" s="243">
         <f>C58/D58</f>
         <v>0.88800000000000001</v>
       </c>
-      <c r="D59" s="261"/>
-      <c r="E59" s="262"/>
-      <c r="F59" s="263">
+      <c r="D59" s="244"/>
+      <c r="E59" s="245"/>
+      <c r="F59" s="246">
         <f>F58/G58</f>
         <v>0.78</v>
       </c>
-      <c r="G59" s="264"/>
-      <c r="H59" s="265"/>
-      <c r="I59" s="266">
+      <c r="G59" s="247"/>
+      <c r="H59" s="248"/>
+      <c r="I59" s="249">
         <f>I58/J58</f>
         <v>0</v>
       </c>
-      <c r="J59" s="267"/>
-      <c r="K59" s="268"/>
+      <c r="J59" s="250"/>
+      <c r="K59" s="251"/>
       <c r="L59" s="72"/>
       <c r="M59" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:K57"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="I59:K59"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="N6:P6"/>
@@ -4990,22 +4987,25 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="I28:J28"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="I59:K59"/>
+    <mergeCell ref="A57:K57"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A56:B56"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L18 L22 L27 L32 L38 L49 L11 C9:C10 F9:F10 I9:I10 C24:C26 F24:F26 I24:I26 C34:C37 F34:F37 I34:I37 C51:C55 F51:F55 I51:I55 I13:I17 F13:F17 C13:C17 I20:I21 F20:F21 C20:C21 I29:I31 F29:F31 C29:C31 I40:I48 F40:F48 C40:C48" xr:uid="{4A0D4DC8-F6F9-4765-AB49-E4E0ACDB1361}">
@@ -5809,7 +5809,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6016,12 +6016,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6157,13 +6154,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6171,5 +6171,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
 </file>
--- a/Equipe207.xlsx
+++ b/Equipe207.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="258" documentId="8_{6BB8C8F4-817F-4135-A9EF-0E7E368F1CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E52C952-C24D-4AC2-9719-58726C217389}"/>
+  <xr:revisionPtr revIDLastSave="260" documentId="8_{6BB8C8F4-817F-4135-A9EF-0E7E368F1CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE8FB52D-FE3A-468F-83C1-B7AABB6505FA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="174">
   <si>
     <t>Fonct.</t>
   </si>
@@ -340,26 +340,6 @@
   </si>
   <si>
     <t>Le code n'utilise pas d'objets anonymes JS et priorise les classes et les interfaces.</t>
-  </si>
-  <si>
-    <t>client\src\app\components\question-zone\question-zone.component.ts
-  28,24:     choiceButtonStyle: { backgroundColor: string }[];
-  29,24:     submitButtonStyle: { backgroundColor: string };
-  31,20:     pointsDisplay: { display: string };
-  56,35:         this.choiceButtonStyle = [{ backgroundColor: '' }];
-  57,34:         this.submitButtonStyle = { backgroundColor: '' };
-  156,80:                 this.socketClientService.send(GameEvents.QuestionChoiceSelect, { roomId: this.roomId, questionChoiceIndex: index });
-  158,82:                 this.socketClientService.send(GameEvents.QuestionChoiceUnselect, { roomId: this.roomId, questionChoiceIndex: index });
-  163,69:     setSubmitButtonToDisabled(isDisabled: boolean, backgroundColor: { backgroundColor: string }) {
-  171,38:             this.submitButtonStyle = { backgroundColor: 'green' };
-  174,38:             this.submitButtonStyle = { backgroundColor: 'grey' };
-  179,41:         this.choiceButtonStyle[index] = { backgroundColor: '' };
-  181,34:         this.submitButtonStyle = { backgroundColor: '' };
-  198,50:             this.setSubmitButtonToDisabled(true, { backgroundColor: 'grey' });
-  211,46:         this.setSubmitButtonToDisabled(true, { backgroundColor: 'grey' });
-  261,77:                 this.socketClientService.send(GameEvents.AddPointsToPlayer, { roomId: this.roomId, points: this.points });
-  268,46:         this.setSubmitButtonToDisabled(true, { backgroundColor: 'grey' });
-  287,73:             this.socketClientService.send(GameEvents.AddPointsToPlayer, { roomId: this.roomId, points: this.points });</t>
   </si>
   <si>
     <t>7.5 Duplication</t>
@@ -2363,6 +2343,30 @@
     <xf numFmtId="0" fontId="14" fillId="19" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2375,6 +2379,84 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="8" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="9" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2383,108 +2465,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="8" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="9" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2990,11 +2970,11 @@
       </c>
       <c r="C5" s="113">
         <f>'Assurance Qualité'!F59</f>
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="D5" s="113">
         <f t="shared" ref="D5:D6" si="0">B5*0.6+C5*0.4 - 0.1*E5</f>
-        <v>0.88500000000000001</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="E5" s="114"/>
       <c r="F5" s="115">
@@ -3002,7 +2982,7 @@
       </c>
       <c r="G5" s="116">
         <f t="shared" ref="G5:G7" si="1">D5*F5</f>
-        <v>17.7</v>
+        <v>18.02</v>
       </c>
       <c r="H5" s="116">
         <f>Documents!E16*5</f>
@@ -3063,7 +3043,7 @@
   <dimension ref="A2:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3082,36 +3062,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A2" s="263" t="s">
+      <c r="A2" s="231" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="263"/>
-      <c r="C2" s="263"/>
-      <c r="D2" s="263"/>
-      <c r="E2" s="263"/>
-      <c r="F2" s="263"/>
-      <c r="G2" s="263"/>
-      <c r="H2" s="263"/>
-      <c r="I2" s="263"/>
-      <c r="J2" s="263"/>
-      <c r="K2" s="263"/>
+      <c r="B2" s="231"/>
+      <c r="C2" s="231"/>
+      <c r="D2" s="231"/>
+      <c r="E2" s="231"/>
+      <c r="F2" s="231"/>
+      <c r="G2" s="231"/>
+      <c r="H2" s="231"/>
+      <c r="I2" s="231"/>
+      <c r="J2" s="231"/>
+      <c r="K2" s="231"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="4" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A4" s="264" t="s">
+      <c r="A4" s="232" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="264"/>
-      <c r="C4" s="264"/>
-      <c r="D4" s="264"/>
-      <c r="E4" s="264"/>
-      <c r="F4" s="264"/>
-      <c r="G4" s="264"/>
-      <c r="H4" s="264"/>
-      <c r="I4" s="264"/>
-      <c r="J4" s="264"/>
-      <c r="K4" s="264"/>
+      <c r="B4" s="232"/>
+      <c r="C4" s="232"/>
+      <c r="D4" s="232"/>
+      <c r="E4" s="232"/>
+      <c r="F4" s="232"/>
+      <c r="G4" s="232"/>
+      <c r="H4" s="232"/>
+      <c r="I4" s="232"/>
+      <c r="J4" s="232"/>
+      <c r="K4" s="232"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
@@ -3131,36 +3111,36 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A6" s="256" t="s">
+      <c r="A6" s="249" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="268" t="s">
+      <c r="B6" s="236" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="258" t="s">
+      <c r="C6" s="251" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="259"/>
-      <c r="E6" s="259"/>
-      <c r="F6" s="260" t="s">
+      <c r="D6" s="252"/>
+      <c r="E6" s="252"/>
+      <c r="F6" s="253" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="261"/>
-      <c r="H6" s="262"/>
-      <c r="I6" s="265" t="s">
+      <c r="G6" s="254"/>
+      <c r="H6" s="255"/>
+      <c r="I6" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="266"/>
-      <c r="K6" s="267"/>
+      <c r="J6" s="234"/>
+      <c r="K6" s="235"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="254"/>
-      <c r="O6" s="255"/>
-      <c r="P6" s="255"/>
+      <c r="N6" s="247"/>
+      <c r="O6" s="248"/>
+      <c r="P6" s="248"/>
     </row>
     <row r="7" spans="1:17" ht="18.75">
-      <c r="A7" s="257"/>
-      <c r="B7" s="269"/>
+      <c r="A7" s="250"/>
+      <c r="B7" s="237"/>
       <c r="C7" s="14" t="s">
         <v>15</v>
       </c>
@@ -3196,28 +3176,28 @@
       <c r="Q7" s="40"/>
     </row>
     <row r="8" spans="1:17" ht="18.75">
-      <c r="A8" s="238" t="s">
+      <c r="A8" s="246" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="238"/>
-      <c r="C8" s="231" t="s">
+      <c r="B8" s="246"/>
+      <c r="C8" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="232"/>
+      <c r="D8" s="240"/>
       <c r="E8" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="231" t="s">
+      <c r="F8" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="232"/>
+      <c r="G8" s="240"/>
       <c r="H8" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="231" t="s">
+      <c r="I8" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="232"/>
+      <c r="J8" s="240"/>
       <c r="K8" s="46"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -3305,10 +3285,10 @@
       <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A11" s="233" t="s">
+      <c r="A11" s="241" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="234"/>
+      <c r="B11" s="242"/>
       <c r="C11" s="47">
         <f>SUMPRODUCT(C6:C10,D6:D10)</f>
         <v>8</v>
@@ -3344,28 +3324,28 @@
       <c r="Q11" s="44"/>
     </row>
     <row r="12" spans="1:17" s="12" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A12" s="238" t="s">
+      <c r="A12" s="246" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="238"/>
-      <c r="C12" s="231" t="s">
+      <c r="B12" s="246"/>
+      <c r="C12" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="232"/>
+      <c r="D12" s="240"/>
       <c r="E12" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="231" t="s">
+      <c r="F12" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="232"/>
+      <c r="G12" s="240"/>
       <c r="H12" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="231" t="s">
+      <c r="I12" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="232"/>
+      <c r="J12" s="240"/>
       <c r="K12" s="46"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -3560,10 +3540,10 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A18" s="233" t="s">
+      <c r="A18" s="241" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="234"/>
+      <c r="B18" s="242"/>
       <c r="C18" s="47">
         <f>SUMPRODUCT(C13:C17,D13:D17)</f>
         <v>13.8</v>
@@ -3599,28 +3579,28 @@
       <c r="Q18" s="44"/>
     </row>
     <row r="19" spans="1:17" s="43" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A19" s="270" t="s">
+      <c r="A19" s="238" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="270"/>
-      <c r="C19" s="231" t="s">
+      <c r="B19" s="238"/>
+      <c r="C19" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="232"/>
+      <c r="D19" s="240"/>
       <c r="E19" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="231" t="s">
+      <c r="F19" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="232"/>
+      <c r="G19" s="240"/>
       <c r="H19" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="231" t="s">
+      <c r="I19" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="232"/>
+      <c r="J19" s="240"/>
       <c r="K19" s="46"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
@@ -3696,10 +3676,10 @@
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A22" s="271" t="s">
+      <c r="A22" s="243" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="253"/>
+      <c r="B22" s="244"/>
       <c r="C22" s="57">
         <f>SUMPRODUCT(C20:C21,D20:D21)</f>
         <v>6</v>
@@ -3735,24 +3715,24 @@
         <v>48</v>
       </c>
       <c r="B23" s="213"/>
-      <c r="C23" s="231" t="s">
+      <c r="C23" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="232"/>
+      <c r="D23" s="240"/>
       <c r="E23" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="231" t="s">
+      <c r="F23" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="232"/>
+      <c r="G23" s="240"/>
       <c r="H23" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="231" t="s">
+      <c r="I23" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="J23" s="232"/>
+      <c r="J23" s="240"/>
       <c r="K23" s="46"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -3855,10 +3835,10 @@
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A27" s="252" t="s">
+      <c r="A27" s="245" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="253"/>
+      <c r="B27" s="244"/>
       <c r="C27" s="47">
         <f>SUMPRODUCT(C24:C26,D24:D26)</f>
         <v>2</v>
@@ -3890,28 +3870,28 @@
       <c r="M27" s="56"/>
     </row>
     <row r="28" spans="1:17" ht="21" customHeight="1">
-      <c r="A28" s="270" t="s">
+      <c r="A28" s="238" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="270"/>
-      <c r="C28" s="231" t="s">
+      <c r="B28" s="238"/>
+      <c r="C28" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="232"/>
+      <c r="D28" s="240"/>
       <c r="E28" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="F28" s="231" t="s">
+      <c r="F28" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="232"/>
+      <c r="G28" s="240"/>
       <c r="H28" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="I28" s="231" t="s">
+      <c r="I28" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="J28" s="232"/>
+      <c r="J28" s="240"/>
       <c r="K28" s="46"/>
       <c r="L28" s="9"/>
       <c r="M28" s="4"/>
@@ -4020,10 +4000,10 @@
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A32" s="233" t="s">
+      <c r="A32" s="241" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="234"/>
+      <c r="B32" s="242"/>
       <c r="C32" s="47">
         <f>SUMPRODUCT(C29:C31,D29:D31)</f>
         <v>6</v>
@@ -4055,21 +4035,21 @@
       <c r="M32" s="56"/>
     </row>
     <row r="33" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A33" s="238" t="s">
+      <c r="A33" s="246" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="238"/>
-      <c r="C33" s="231" t="s">
+      <c r="B33" s="246"/>
+      <c r="C33" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="232"/>
+      <c r="D33" s="240"/>
       <c r="E33" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="F33" s="231" t="s">
+      <c r="F33" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="232"/>
+      <c r="G33" s="240"/>
       <c r="H33" s="46" t="s">
         <v>49</v>
       </c>
@@ -4218,10 +4198,10 @@
       <c r="M37" s="5"/>
     </row>
     <row r="38" spans="1:13" s="44" customFormat="1" ht="15.75">
-      <c r="A38" s="233" t="s">
+      <c r="A38" s="241" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="234"/>
+      <c r="B38" s="242"/>
       <c r="C38" s="69">
         <f>SUMPRODUCT(C34:C37,D34:D37)</f>
         <v>3.5</v>
@@ -4257,24 +4237,24 @@
         <v>82</v>
       </c>
       <c r="B39" s="45"/>
-      <c r="C39" s="231" t="s">
+      <c r="C39" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="232"/>
+      <c r="D39" s="240"/>
       <c r="E39" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="F39" s="231" t="s">
+      <c r="F39" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="G39" s="232"/>
+      <c r="G39" s="240"/>
       <c r="H39" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="I39" s="231" t="s">
+      <c r="I39" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="J39" s="232"/>
+      <c r="J39" s="240"/>
       <c r="K39" s="46"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
@@ -4389,7 +4369,7 @@
       <c r="K42" s="78"/>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="1:13" ht="409.6">
+    <row r="43" spans="1:13">
       <c r="A43" s="23" t="s">
         <v>91</v>
       </c>
@@ -4406,14 +4386,14 @@
         <v>86</v>
       </c>
       <c r="F43" s="86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" s="87">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="H43" s="88" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I43" s="76">
         <v>0</v>
@@ -4428,10 +4408,10 @@
     </row>
     <row r="44" spans="1:13" ht="409.6">
       <c r="A44" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="23" t="s">
         <v>94</v>
-      </c>
-      <c r="B44" s="23" t="s">
-        <v>95</v>
       </c>
       <c r="C44" s="83">
         <v>1</v>
@@ -4450,7 +4430,7 @@
         <v>6</v>
       </c>
       <c r="H44" s="88" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I44" s="76">
         <v>0</v>
@@ -4465,10 +4445,10 @@
     </row>
     <row r="45" spans="1:13" ht="45.75">
       <c r="A45" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="23" t="s">
         <v>97</v>
-      </c>
-      <c r="B45" s="23" t="s">
-        <v>98</v>
       </c>
       <c r="C45" s="83">
         <v>1</v>
@@ -4502,10 +4482,10 @@
     </row>
     <row r="46" spans="1:13" ht="30.75">
       <c r="A46" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="23" t="s">
         <v>99</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>100</v>
       </c>
       <c r="C46" s="83">
         <v>1</v>
@@ -4539,10 +4519,10 @@
     </row>
     <row r="47" spans="1:13" ht="76.5">
       <c r="A47" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="23" t="s">
         <v>101</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>102</v>
       </c>
       <c r="C47" s="83">
         <v>1</v>
@@ -4576,10 +4556,10 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="23" t="s">
         <v>103</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>104</v>
       </c>
       <c r="C48" s="83">
         <v>1</v>
@@ -4612,10 +4592,10 @@
       <c r="M48" s="5"/>
     </row>
     <row r="49" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A49" s="233" t="s">
+      <c r="A49" s="241" t="s">
         <v>27</v>
       </c>
-      <c r="B49" s="234"/>
+      <c r="B49" s="242"/>
       <c r="C49" s="71">
         <f>SUMPRODUCT(C40:C48,D40:D48)</f>
         <v>40</v>
@@ -4627,7 +4607,7 @@
       <c r="E49" s="59"/>
       <c r="F49" s="70">
         <f>SUMPRODUCT(F40:F48,G40:G48)</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G49" s="51">
         <f>SUM(G40:G48)</f>
@@ -4651,38 +4631,38 @@
       <c r="Q49" s="44"/>
     </row>
     <row r="50" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A50" s="238" t="s">
-        <v>105</v>
-      </c>
-      <c r="B50" s="238"/>
-      <c r="C50" s="231" t="s">
+      <c r="A50" s="246" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="246"/>
+      <c r="C50" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="232"/>
+      <c r="D50" s="240"/>
       <c r="E50" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="F50" s="231" t="s">
+      <c r="F50" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="G50" s="232"/>
+      <c r="G50" s="240"/>
       <c r="H50" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="I50" s="231" t="s">
+      <c r="I50" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="J50" s="232"/>
+      <c r="J50" s="240"/>
       <c r="K50" s="46"/>
       <c r="L50" s="8"/>
       <c r="M50" s="4"/>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="29" t="s">
         <v>106</v>
-      </c>
-      <c r="B51" s="29" t="s">
-        <v>107</v>
       </c>
       <c r="C51" s="79">
         <v>1</v>
@@ -4710,10 +4690,10 @@
     </row>
     <row r="52" spans="1:17" ht="121.5">
       <c r="A52" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="23" t="s">
         <v>108</v>
-      </c>
-      <c r="B52" s="23" t="s">
-        <v>109</v>
       </c>
       <c r="C52" s="83">
         <v>0.75</v>
@@ -4722,7 +4702,7 @@
         <v>2</v>
       </c>
       <c r="E52" s="85" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F52" s="86">
         <v>0.75</v>
@@ -4731,7 +4711,7 @@
         <v>2</v>
       </c>
       <c r="H52" s="88" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I52" s="76">
         <v>0</v>
@@ -4745,10 +4725,10 @@
     </row>
     <row r="53" spans="1:17" ht="30.75">
       <c r="A53" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="23" t="s">
         <v>112</v>
-      </c>
-      <c r="B53" s="23" t="s">
-        <v>113</v>
       </c>
       <c r="C53" s="83">
         <v>1</v>
@@ -4778,10 +4758,10 @@
     </row>
     <row r="54" spans="1:17" ht="60.75">
       <c r="A54" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="23" t="s">
         <v>114</v>
-      </c>
-      <c r="B54" s="23" t="s">
-        <v>115</v>
       </c>
       <c r="C54" s="83">
         <v>0.75</v>
@@ -4790,7 +4770,7 @@
         <v>4</v>
       </c>
       <c r="E54" s="85" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F54" s="86">
         <v>1</v>
@@ -4811,10 +4791,10 @@
     </row>
     <row r="55" spans="1:17" ht="30.75">
       <c r="A55" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" s="23" t="s">
         <v>117</v>
-      </c>
-      <c r="B55" s="23" t="s">
-        <v>118</v>
       </c>
       <c r="C55" s="83">
         <v>1</v>
@@ -4841,10 +4821,10 @@
       <c r="M55" s="5"/>
     </row>
     <row r="56" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A56" s="233" t="s">
+      <c r="A56" s="241" t="s">
         <v>27</v>
       </c>
-      <c r="B56" s="234"/>
+      <c r="B56" s="242"/>
       <c r="C56" s="57">
         <f>SUMPRODUCT(C51:C55,D51:D55)</f>
         <v>9.5</v>
@@ -4876,27 +4856,27 @@
       <c r="M56" s="56"/>
     </row>
     <row r="57" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A57" s="235" t="s">
+      <c r="A57" s="269" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="236"/>
-      <c r="C57" s="236"/>
-      <c r="D57" s="236"/>
-      <c r="E57" s="236"/>
-      <c r="F57" s="236"/>
-      <c r="G57" s="236"/>
-      <c r="H57" s="236"/>
-      <c r="I57" s="236"/>
-      <c r="J57" s="236"/>
-      <c r="K57" s="237"/>
+      <c r="B57" s="270"/>
+      <c r="C57" s="270"/>
+      <c r="D57" s="270"/>
+      <c r="E57" s="270"/>
+      <c r="F57" s="270"/>
+      <c r="G57" s="270"/>
+      <c r="H57" s="270"/>
+      <c r="I57" s="270"/>
+      <c r="J57" s="270"/>
+      <c r="K57" s="271"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
     </row>
     <row r="58" spans="1:17">
-      <c r="A58" s="239" t="s">
-        <v>119</v>
-      </c>
-      <c r="B58" s="240"/>
+      <c r="A58" s="256" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" s="257"/>
       <c r="C58" s="34">
         <f>C11+C18+C22+C27+C32+C38+C49+C56</f>
         <v>88.8</v>
@@ -4908,7 +4888,7 @@
       <c r="E58" s="26"/>
       <c r="F58" s="35">
         <f>F11+F18+F22+F27+F32+F38+F49+F56</f>
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G58" s="27">
         <f>G11+G18+G22+G27+G32+G38+G49+G56</f>
@@ -4928,33 +4908,68 @@
       <c r="M58" s="5"/>
     </row>
     <row r="59" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A59" s="241" t="s">
-        <v>120</v>
-      </c>
-      <c r="B59" s="242"/>
-      <c r="C59" s="243">
+      <c r="A59" s="258" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" s="259"/>
+      <c r="C59" s="260">
         <f>C58/D58</f>
         <v>0.88800000000000001</v>
       </c>
-      <c r="D59" s="244"/>
-      <c r="E59" s="245"/>
-      <c r="F59" s="246">
+      <c r="D59" s="261"/>
+      <c r="E59" s="262"/>
+      <c r="F59" s="263">
         <f>F58/G58</f>
-        <v>0.78</v>
-      </c>
-      <c r="G59" s="247"/>
-      <c r="H59" s="248"/>
-      <c r="I59" s="249">
+        <v>0.82</v>
+      </c>
+      <c r="G59" s="264"/>
+      <c r="H59" s="265"/>
+      <c r="I59" s="266">
         <f>I58/J58</f>
         <v>0</v>
       </c>
-      <c r="J59" s="250"/>
-      <c r="K59" s="251"/>
+      <c r="J59" s="267"/>
+      <c r="K59" s="268"/>
       <c r="L59" s="72"/>
       <c r="M59" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:K57"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="I59:K59"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="I28:J28"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="I6:K6"/>
@@ -4971,41 +4986,6 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="I59:K59"/>
-    <mergeCell ref="A57:K57"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A56:B56"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L18 L22 L27 L32 L38 L49 L11 C9:C10 F9:F10 I9:I10 C24:C26 F24:F26 I24:I26 C34:C37 F34:F37 I34:I37 C51:C55 F51:F55 I51:I55 I13:I17 F13:F17 C13:C17 I20:I21 F20:F21 C20:C21 I29:I31 F29:F31 C29:C31 I40:I48 F40:F48 C40:C48" xr:uid="{4A0D4DC8-F6F9-4765-AB49-E4E0ACDB1361}">
@@ -5064,7 +5044,7 @@
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="A4" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -5087,19 +5067,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="130" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B7" s="131" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="131" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D7" s="131" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="131" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F7" s="131" t="s">
         <v>18</v>
@@ -5110,7 +5090,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="133" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="134">
         <v>1</v>
@@ -5126,13 +5106,13 @@
         <v>5</v>
       </c>
       <c r="F8" s="134" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G8" s="135"/>
     </row>
     <row r="9" spans="1:7" ht="30.75">
       <c r="A9" s="136" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" s="137">
         <v>0.75</v>
@@ -5148,15 +5128,15 @@
         <v>15</v>
       </c>
       <c r="F9" s="134" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G9" s="230" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="133" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B10" s="134">
         <v>1</v>
@@ -5172,13 +5152,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="134" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G10" s="135"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="136" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B11" s="137">
         <v>1</v>
@@ -5194,13 +5174,13 @@
         <v>20</v>
       </c>
       <c r="F11" s="134" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G11" s="138"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="133" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B12" s="134">
         <v>1</v>
@@ -5216,13 +5196,13 @@
         <v>30</v>
       </c>
       <c r="F12" s="134" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G12" s="135"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="136" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B13" s="137">
         <v>1</v>
@@ -5238,13 +5218,13 @@
         <v>15</v>
       </c>
       <c r="F13" s="134" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G13" s="138"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="139" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B14" s="279"/>
       <c r="C14" s="279"/>
@@ -5261,7 +5241,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="143" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B15" s="144" t="s">
         <v>15</v>
@@ -5271,7 +5251,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="145" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F15" s="145"/>
       <c r="G15" s="146" t="s">
@@ -5280,7 +5260,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="147" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B16" s="148">
         <v>0.25</v>
@@ -5295,12 +5275,12 @@
       </c>
       <c r="F16" s="148"/>
       <c r="G16" s="150" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="151" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B17" s="152"/>
       <c r="C17" s="152"/>
@@ -5327,19 +5307,19 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="155" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B19" s="156" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="156" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D19" s="156" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="156" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F19" s="156" t="s">
         <v>18</v>
@@ -5350,7 +5330,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="158" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B20" s="159">
         <v>0.9</v>
@@ -5366,15 +5346,15 @@
         <v>13.5</v>
       </c>
       <c r="F20" s="159" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G20" s="160" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="161" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B21" s="162">
         <v>1</v>
@@ -5390,7 +5370,7 @@
         <v>20</v>
       </c>
       <c r="F21" s="159" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G21" s="214" t="s">
         <v>26</v>
@@ -5398,7 +5378,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="158" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B22" s="162">
         <v>1</v>
@@ -5414,7 +5394,7 @@
         <v>20</v>
       </c>
       <c r="F22" s="159" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G22" s="214" t="s">
         <v>26</v>
@@ -5422,7 +5402,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="161" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B23" s="162">
         <v>1</v>
@@ -5438,15 +5418,15 @@
         <v>27</v>
       </c>
       <c r="F23" s="159" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G23" s="214" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="158" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B24" s="162">
         <v>1</v>
@@ -5462,7 +5442,7 @@
         <v>15</v>
       </c>
       <c r="F24" s="159" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G24" s="214" t="s">
         <v>26</v>
@@ -5470,7 +5450,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="163" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B25" s="164"/>
       <c r="C25" s="164"/>
@@ -5487,7 +5467,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="167" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B26" s="168" t="s">
         <v>15</v>
@@ -5497,7 +5477,7 @@
         <v>4</v>
       </c>
       <c r="E26" s="169" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F26" s="169"/>
       <c r="G26" s="170" t="s">
@@ -5506,7 +5486,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="171" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B27" s="172">
         <v>0</v>
@@ -5524,7 +5504,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="175" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B28" s="176">
         <v>0</v>
@@ -5542,7 +5522,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="179" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B29" s="180">
         <v>0</v>
@@ -5571,19 +5551,19 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="183" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B31" s="184" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="184" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D31" s="184" t="s">
         <v>4</v>
       </c>
       <c r="E31" s="184" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F31" s="184" t="s">
         <v>18</v>
@@ -5594,7 +5574,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="186" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B32" s="187"/>
       <c r="C32" s="187"/>
@@ -5610,7 +5590,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="189" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B33" s="190"/>
       <c r="C33" s="190"/>
@@ -5626,7 +5606,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="186" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B34" s="187"/>
       <c r="C34" s="187"/>
@@ -5642,7 +5622,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="189" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B35" s="190"/>
       <c r="C35" s="190"/>
@@ -5658,7 +5638,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="186" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B36" s="187"/>
       <c r="C36" s="187"/>
@@ -5674,7 +5654,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="189" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B37" s="190"/>
       <c r="C37" s="190"/>
@@ -5690,7 +5670,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="192" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B38" s="193"/>
       <c r="C38" s="193"/>
@@ -5707,7 +5687,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="196" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B39" s="197" t="s">
         <v>15</v>
@@ -5717,7 +5697,7 @@
         <v>4</v>
       </c>
       <c r="E39" s="198" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F39" s="198"/>
       <c r="G39" s="199" t="s">
@@ -5726,7 +5706,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="200" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B40" s="201">
         <v>0</v>
@@ -5744,7 +5724,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="204" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B41" s="205">
         <v>0</v>
@@ -5762,7 +5742,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="208" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B42" s="209">
         <v>0</v>
@@ -5822,11 +5802,11 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" customHeight="1">
       <c r="A1" s="283" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B1" s="283"/>
       <c r="D1" s="283" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E1" s="283"/>
     </row>
@@ -5842,23 +5822,23 @@
     </row>
     <row r="3" spans="1:5" ht="25.5" customHeight="1">
       <c r="A3" s="215" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B3" s="221"/>
       <c r="D3" s="215" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E3" s="221"/>
     </row>
     <row r="4" spans="1:5" ht="35.25" customHeight="1">
       <c r="A4" s="216" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B4" s="222">
         <v>1</v>
       </c>
       <c r="D4" s="216" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E4" s="222">
         <v>1</v>
@@ -5867,22 +5847,22 @@
     <row r="5" spans="1:5" ht="42" customHeight="1">
       <c r="A5" s="215"/>
       <c r="B5" s="223" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D5" s="215"/>
       <c r="E5" s="223" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5">
       <c r="A6" s="216" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B6" s="222">
         <v>5</v>
       </c>
       <c r="D6" s="216" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E6" s="222">
         <v>5</v>
@@ -5891,22 +5871,22 @@
     <row r="7" spans="1:5" ht="64.5">
       <c r="A7" s="215"/>
       <c r="B7" s="221" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D7" s="215"/>
       <c r="E7" s="221" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5">
       <c r="A8" s="216" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B8" s="222">
         <v>7</v>
       </c>
       <c r="D8" s="216" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E8" s="222">
         <v>12</v>
@@ -5915,14 +5895,14 @@
     <row r="9" spans="1:5" ht="16.5">
       <c r="A9" s="215"/>
       <c r="B9" s="224" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D9" s="217"/>
       <c r="E9" s="224"/>
     </row>
     <row r="10" spans="1:5" ht="16.5">
       <c r="A10" s="216" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B10" s="222">
         <v>2</v>
@@ -5931,18 +5911,18 @@
     <row r="11" spans="1:5" ht="148.5" customHeight="1">
       <c r="A11" s="217"/>
       <c r="B11" s="224" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5">
       <c r="A12" s="218" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B12" s="222">
         <v>0.75</v>
       </c>
       <c r="D12" s="218" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E12" s="227">
         <v>0.9</v>
@@ -5951,23 +5931,23 @@
     <row r="13" spans="1:5" ht="16.5">
       <c r="A13" s="215"/>
       <c r="B13" s="224" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D13" s="215"/>
       <c r="E13" s="224" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5">
       <c r="A14" s="219" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B14" s="225">
         <f>SUM(B4,B6,B8,B10)</f>
         <v>15</v>
       </c>
       <c r="D14" s="219" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E14" s="225">
         <f>SUM(E4,E6,E8)</f>
@@ -5976,14 +5956,14 @@
     </row>
     <row r="15" spans="1:5" ht="16.5">
       <c r="A15" s="219" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B15" s="225">
         <f>B12</f>
         <v>0.75</v>
       </c>
       <c r="D15" s="219" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E15" s="225">
         <f>E12</f>
@@ -5992,14 +5972,14 @@
     </row>
     <row r="16" spans="1:5" ht="16.5">
       <c r="A16" s="220" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B16" s="226">
         <f>B14/20*0.9+B15*0.1</f>
         <v>0.75</v>
       </c>
       <c r="D16" s="220" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E16" s="226">
         <f>E14/20*0.9+E15*0.1</f>
@@ -6016,9 +5996,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6154,16 +6137,13 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6171,5 +6151,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
 </file>